--- a/data/trans_camb/IP16A05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A05-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 15,97</t>
+          <t>-10,06; 17,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 26,44</t>
+          <t>-10,37; 24,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 27,03</t>
+          <t>-9,69; 26,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 22,72</t>
+          <t>-6,62; 23,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 23,19</t>
+          <t>-11,76; 22,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 30,66</t>
+          <t>-12,49; 28,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 15,19</t>
+          <t>-5,74; 16,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 17,41</t>
+          <t>-7,79; 15,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 20,44</t>
+          <t>-6,54; 21,6</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,05; 938,25</t>
+          <t>-61,96; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 416,32</t>
+          <t>-51,77; 708,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,95; 518,45</t>
+          <t>-77,82; 455,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-70,14; 503,68</t>
+          <t>-64,25; 690,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 11,18</t>
+          <t>-4,2; 11,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 10,98</t>
+          <t>-4,73; 10,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -1,08</t>
+          <t>-12,77; -1,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 18,33</t>
+          <t>0,71; 18,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 8,17</t>
+          <t>-6,74; 8,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 5,39</t>
+          <t>-8,91; 5,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 12,16</t>
+          <t>0,11; 11,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 7,11</t>
+          <t>-3,3; 7,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 0,21</t>
+          <t>-8,56; 0,27</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 167,73</t>
+          <t>-32,13; 168,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,7; 169,14</t>
+          <t>-35,96; 167,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-88,39; -11,37</t>
+          <t>-86,3; -2,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 302,11</t>
+          <t>-0,71; 306,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,49; 158,45</t>
+          <t>-50,7; 137,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,11; 99,19</t>
+          <t>-66,94; 98,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 162,12</t>
+          <t>-2,85; 151,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 99,67</t>
+          <t>-27,33; 103,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,92; 7,44</t>
+          <t>-68,52; 9,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 14,55</t>
+          <t>-11,1; 15,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 17,94</t>
+          <t>-11,38; 17,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 7,65</t>
+          <t>-15,78; 7,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 23,82</t>
+          <t>-2,27; 22,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 23,13</t>
+          <t>-4,05; 22,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 11,71</t>
+          <t>-8,26; 12,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 15,93</t>
+          <t>-3,05; 15,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 15,93</t>
+          <t>-5,65; 15,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 6,64</t>
+          <t>-10,26; 6,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,67; 239,86</t>
+          <t>-59,15; 261,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,19; 298,6</t>
+          <t>-64,69; 260,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-86,95; 145,12</t>
+          <t>-85,83; 120,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,33; —</t>
+          <t>-49,17; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-59,47; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-75,56; —</t>
+          <t>-83,69; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 261,74</t>
+          <t>-25,13; 287,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 267,78</t>
+          <t>-42,58; 276,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-70,22; 124,5</t>
+          <t>-67,77; 134,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 9,07</t>
+          <t>-2,83; 9,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 8,83</t>
+          <t>-3,15; 9,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 0,33</t>
+          <t>-10,06; 0,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 16,14</t>
+          <t>2,48; 15,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 8,8</t>
+          <t>-3,09; 9,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 4,99</t>
+          <t>-5,69; 5,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,31; 10,42</t>
+          <t>0,78; 9,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 7,91</t>
+          <t>-1,65; 7,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 0,91</t>
+          <t>-6,5; 0,93</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 119,52</t>
+          <t>-24,47; 117,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 117,96</t>
+          <t>-26,66; 126,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-72,21; 11,45</t>
+          <t>-75,18; 4,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>18,0; 291,42</t>
+          <t>21,49; 247,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 155,02</t>
+          <t>-29,39; 144,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-50,83; 81,0</t>
+          <t>-48,12; 98,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,9; 147,18</t>
+          <t>4,6; 126,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 107,67</t>
+          <t>-17,04; 90,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-55,02; 13,24</t>
+          <t>-55,37; 13,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A05-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 23,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,95; 22,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,95; 27,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,94; 17,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,17; 29,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,37; 27,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,04; 15,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; 17,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,84; 18,88</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,97%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-60,15; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,95; 498,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,71; 610,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,67; 584,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>-4,24</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 17,58</t>
+          <t>0,05; 17,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 24,91</t>
+          <t>-7,69; 8,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 26,89</t>
+          <t>-9,71; 7,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 23,67</t>
+          <t>-4,52; 11,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 22,04</t>
+          <t>-4,98; 10,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 28,78</t>
+          <t>-12,97; -1,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 16,34</t>
+          <t>0,04; 11,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 15,62</t>
+          <t>-3,35; 7,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 21,6</t>
+          <t>-9,51; 0,7</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>92,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>85,22%</t>
+          <t>-18,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>81,24%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>-66,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,11%</t>
+          <t>59,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,6%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>71,1%</t>
+          <t>-42,83%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,34; 262,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,73; 127,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,79; 126,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,96; —</t>
+          <t>-34,46; 183,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,14; 192,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,85; -3,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 708,16</t>
+          <t>-0,36; 156,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-77,82; 455,97</t>
+          <t>-27,93; 101,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-64,25; 690,02</t>
+          <t>-73,68; 10,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>10,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-1,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 11,22</t>
+          <t>-1,11; 23,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 10,47</t>
+          <t>-3,58; 22,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,77; -1,11</t>
+          <t>-9,33; 12,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 18,64</t>
+          <t>-11,6; 14,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 8,45</t>
+          <t>-11,02; 16,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 5,5</t>
+          <t>-16,39; 7,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 11,59</t>
+          <t>-3,93; 15,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 7,52</t>
+          <t>-5,47; 15,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 0,27</t>
+          <t>-9,75; 6,28</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>189,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>152,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-65,14%</t>
+          <t>51,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-17,93%</t>
+          <t>-34,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>59,87%</t>
+          <t>53,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-43,4%</t>
+          <t>-15,42%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 168,13</t>
+          <t>-31,67; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 167,31</t>
+          <t>-72,1; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,3; -2,32</t>
+          <t>-80,79; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 306,16</t>
+          <t>-63,46; 256,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 137,77</t>
+          <t>-64,46; 270,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,94; 98,96</t>
+          <t>-86,85; 156,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 151,73</t>
+          <t>-36,99; 255,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 103,5</t>
+          <t>-42,92; 243,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,52; 9,03</t>
+          <t>-65,03; 120,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,93</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-2,73</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 15,36</t>
+          <t>2,11; 16,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 17,9</t>
+          <t>-3,3; 8,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 7,18</t>
+          <t>-6,24; 6,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 22,24</t>
+          <t>-3,72; 8,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 22,01</t>
+          <t>-3,5; 8,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 12,39</t>
+          <t>-10,31; -0,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 15,58</t>
+          <t>0,94; 10,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 15,18</t>
+          <t>-1,53; 7,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 6,71</t>
+          <t>-6,63; 1,59</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>100,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-35,16%</t>
+          <t>-5,1%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>189,43%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>152,58%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>-47,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>53,27%</t>
+          <t>59,24%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,39%</t>
+          <t>-28,36%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,15; 261,43</t>
+          <t>16,17; 285,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 260,87</t>
+          <t>-30,36; 135,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-85,83; 120,3</t>
+          <t>-53,45; 105,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,17; —</t>
+          <t>-27,73; 117,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,75; 120,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,69; —</t>
+          <t>-76,29; 1,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 287,53</t>
+          <t>5,61; 130,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 276,03</t>
+          <t>-13,67; 98,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,77; 134,46</t>
+          <t>-57,83; 22,61</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-4,76</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>8,95</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-2,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 9,05</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 9,05</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-10,06; 0,07</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 15,29</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 9,02</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 5,76</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 9,89</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 7,01</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-6,5; 0,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>26,99%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>27,68%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-46,66%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>100,58%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>31,27%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-1,81%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>59,67%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>28,63%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-27,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-24,47; 117,76</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-26,66; 126,22</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-75,18; 4,39</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>21,49; 247,0</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-29,39; 144,8</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-48,12; 98,38</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 126,3</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-17,04; 90,27</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-55,37; 13,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
